--- a/SAPNA EXCEL BASIC2 (1) (1) 1.xlsx
+++ b/SAPNA EXCEL BASIC2 (1) (1) 1.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="242">
   <si>
     <t>INTRODUCTION</t>
   </si>
@@ -916,6 +916,9 @@
   </si>
   <si>
     <t>EMPLOYEE PAYROLL</t>
+  </si>
+  <si>
+    <t>sdfdsf</t>
   </si>
 </sst>
 </file>
@@ -1223,15 +1226,43 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1241,31 +1272,61 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1274,58 +1335,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1334,9 +1344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1367,10 +1374,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1514,12 +1517,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="63656320"/>
-        <c:axId val="63657856"/>
+        <c:axId val="68253952"/>
+        <c:axId val="68259840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63656320"/>
+        <c:axId val="68253952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,14 +1529,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63657856"/>
+        <c:crossAx val="68259840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63657856"/>
+        <c:axId val="68259840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,7 +1544,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63656320"/>
+        <c:crossAx val="68253952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1555,7 +1557,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1581,7 +1583,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="workbook.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1627,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="WORKSHEET.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,7 +1671,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="CELL NAME.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,7 +1715,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="Capture.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1757,7 +1759,7 @@
         <xdr:cNvPr id="6" name="Picture 5" descr="RIBBON.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,7 +1808,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,18 +2210,18 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="39"/>
@@ -2352,24 +2354,24 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" s="41"/>
@@ -2438,24 +2440,24 @@
       <c r="G27" s="41"/>
     </row>
     <row r="31" spans="2:17">
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
     </row>
     <row r="32" spans="2:17">
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="3"/>
@@ -2482,57 +2484,57 @@
       <c r="E39" s="3"/>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
     </row>
     <row r="49" spans="2:15">
       <c r="B49" s="4"/>
@@ -2571,91 +2573,91 @@
       <c r="H52" s="4"/>
     </row>
     <row r="55" spans="2:15" ht="15.75">
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="46"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
     </row>
     <row r="58" spans="2:15">
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="34"/>
+      <c r="C58" s="37"/>
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="2:15">
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
       <c r="G59" s="1"/>
     </row>
     <row r="61" spans="2:15">
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
     </row>
     <row r="62" spans="2:15">
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
     </row>
     <row r="63" spans="2:15">
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
     </row>
     <row r="64" spans="2:15">
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
       <c r="M66" s="1"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
     </row>
     <row r="68" spans="1:13">
       <c r="H68" s="1"/>
@@ -2705,18 +2707,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B4:G15"/>
+    <mergeCell ref="I5:P6"/>
+    <mergeCell ref="B18:E20"/>
+    <mergeCell ref="B22:G27"/>
+    <mergeCell ref="J22:Q23"/>
     <mergeCell ref="B61:G67"/>
     <mergeCell ref="B31:E33"/>
     <mergeCell ref="B42:L44"/>
     <mergeCell ref="B46:D47"/>
     <mergeCell ref="B55:O55"/>
     <mergeCell ref="B58:C59"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="B4:G15"/>
-    <mergeCell ref="I5:P6"/>
-    <mergeCell ref="B18:E20"/>
-    <mergeCell ref="B22:G27"/>
-    <mergeCell ref="J22:Q23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2739,14 +2741,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="23" t="s">
@@ -2910,51 +2912,51 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2982,23 +2984,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="66"/>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" t="s">
@@ -3063,50 +3065,50 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3135,14 +3137,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="16" t="s">
@@ -3228,47 +3230,47 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3298,13 +3300,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -3435,38 +3437,38 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3501,14 +3503,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="4" spans="1:8">
       <c r="D4" s="25" t="str">
@@ -3526,67 +3528,67 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
       <c r="H10" s="25" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3617,28 +3619,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="26" t="s">
@@ -3682,58 +3684,58 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3764,24 +3766,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
       <c r="H3" s="27" t="s">
         <v>189</v>
       </c>
@@ -3793,12 +3795,12 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
       <c r="H4" s="27" t="s">
         <v>191</v>
       </c>
@@ -3810,12 +3812,12 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
       <c r="H5" s="27" t="s">
         <v>193</v>
       </c>
@@ -3827,20 +3829,20 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
       <c r="H7" s="27" t="s">
         <v>195</v>
       </c>
@@ -3853,44 +3855,44 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="H9" s="75" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="H9" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="I9" s="75"/>
+      <c r="I9" s="77"/>
       <c r="J9" s="30">
         <f>J7*360</f>
         <v>-14051109977.339741</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
       <c r="I11">
         <f>NPER(J4/12,J7,J3,(0))</f>
         <v>15.919930027518935</v>
@@ -3930,21 +3932,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" s="31" t="s">
@@ -4064,72 +4066,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
@@ -4172,72 +4174,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="79"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
@@ -4335,295 +4337,295 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:18">
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:18">
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="12" spans="2:18" ht="14.25" customHeight="1"/>
     <row r="13" spans="2:18" ht="15" customHeight="1">
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="G13" s="35" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="G13" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="G17" s="36" t="s">
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="G17" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
     </row>
     <row r="19" spans="3:14">
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
     </row>
     <row r="22" spans="3:14" ht="15" customHeight="1">
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="G22" s="33" t="s">
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="G22" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
     </row>
     <row r="25" spans="3:14">
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="3:14">
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="3:14">
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="3:14">
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="G28" s="33" t="s">
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="G28" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
     </row>
     <row r="29" spans="3:14">
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
     </row>
     <row r="30" spans="3:14">
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
     </row>
     <row r="31" spans="3:14">
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
     </row>
     <row r="32" spans="3:14">
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4648,151 +4650,151 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:J14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="82" t="s">
@@ -4809,12 +4811,17 @@
       <c r="I14" s="83"/>
       <c r="J14" s="83"/>
     </row>
+    <row r="18" spans="4:6">
+      <c r="E18" t="s">
+        <v>241</v>
+      </c>
+    </row>
     <row r="21" spans="4:6">
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4918,18 +4925,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4953,49 +4960,49 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="1:14" ht="18.75">
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:14">
       <c r="I4" s="1"/>
       <c r="J4" s="12"/>
-      <c r="L4" s="80" t="s">
+      <c r="L4" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M4" s="80"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:14" ht="18.75">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="1">
         <v>1</v>
       </c>
@@ -5019,10 +5026,10 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="1">
         <v>2</v>
       </c>
@@ -5046,10 +5053,10 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="60"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="14">
         <v>3</v>
       </c>
@@ -5073,10 +5080,10 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="60"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="1">
         <v>4</v>
       </c>
@@ -5085,10 +5092,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="52"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -5132,48 +5139,48 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
       <c r="N15" s="1"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="15"/>
@@ -5187,107 +5194,131 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="56" t="s">
+      <c r="D20" s="61"/>
+      <c r="E20" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="56"/>
+      <c r="F20" s="60"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="49">
+      <c r="B21" s="64"/>
+      <c r="C21" s="65">
         <v>44197</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50">
+      <c r="D21" s="66"/>
+      <c r="E21" s="66">
         <v>1</v>
       </c>
-      <c r="F21" s="50"/>
+      <c r="F21" s="66"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="49">
+      <c r="B22" s="64"/>
+      <c r="C22" s="65">
         <v>44198</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50">
+      <c r="D22" s="66"/>
+      <c r="E22" s="66">
         <v>2</v>
       </c>
-      <c r="F22" s="50"/>
+      <c r="F22" s="66"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="49">
+      <c r="B23" s="64"/>
+      <c r="C23" s="65">
         <v>44199</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50">
+      <c r="D23" s="66"/>
+      <c r="E23" s="66">
         <v>3</v>
       </c>
-      <c r="F23" s="50"/>
+      <c r="F23" s="66"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="49">
+      <c r="B24" s="64"/>
+      <c r="C24" s="65">
         <v>44200</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50">
+      <c r="D24" s="66"/>
+      <c r="E24" s="66">
         <v>4</v>
       </c>
-      <c r="F24" s="50"/>
+      <c r="F24" s="66"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="49">
+      <c r="B25" s="64"/>
+      <c r="C25" s="65">
         <v>44201</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50">
+      <c r="D25" s="66"/>
+      <c r="E25" s="66">
         <v>5</v>
       </c>
-      <c r="F25" s="50"/>
+      <c r="F25" s="66"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B27:F28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:I18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -5296,30 +5327,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:H6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:I18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B27:F28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L4:M4" location="LINKS!A1" display="BACK TO LINK"/>
@@ -5340,12 +5347,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="69" t="s">
@@ -5356,94 +5363,94 @@
       <c r="D3" s="69"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="H5" s="80" t="s">
+      <c r="D5" s="66"/>
+      <c r="H5" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="I5" s="80"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="66"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="66"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="66"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="66"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
     </row>
     <row r="16" spans="1:10">
       <c r="J16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A13:G14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A13:G14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H5:I5" location="LINKS!A1" display="BACK TO LINK"/>
@@ -5468,62 +5475,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
     </row>
     <row r="6" spans="1:11" ht="18.75">
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32" t="s">
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="16" t="s">
         <v>59</v>
       </c>
       <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="66"/>
       <c r="D8" t="str">
         <f>CONCATENATE(A8,A9)</f>
         <v>wilbur lepchaNELSON mandela</v>
@@ -5542,10 +5549,10 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="66"/>
       <c r="D9" t="str">
         <f>CONCATENATE(A8,A9,A11)</f>
         <v>wilbur lepchaNELSON mandelaelon musk</v>
@@ -5569,74 +5576,68 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="66"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="66"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E22"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A7:C7"/>
@@ -5644,6 +5645,12 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E22"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5668,14 +5675,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="18" t="s">
@@ -5796,56 +5803,56 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
       <c r="H18" s="1"/>
     </row>
   </sheetData>
@@ -5875,14 +5882,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -5952,41 +5959,41 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
     </row>
     <row r="23" spans="1:9">
       <c r="I23" s="1"/>
@@ -6018,19 +6025,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="72"/>
+      <c r="C4" s="74"/>
       <c r="D4" t="s">
         <v>101</v>
       </c>
@@ -6041,17 +6048,17 @@
       </c>
       <c r="D7" s="21">
         <f ca="1">TODAY()</f>
-        <v>44688</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="D8" s="22">
         <f ca="1">NOW()</f>
-        <v>44688.377155787035</v>
+        <v>44701.71136828704</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="75" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="21">
@@ -6060,85 +6067,85 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="53"/>
+      <c r="B10" s="57"/>
       <c r="D10">
         <f>MONTH(D9)</f>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="53"/>
+      <c r="B11" s="57"/>
       <c r="D11">
         <f ca="1">YEAR(D7)</f>
         <v>2022</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="5">
